--- a/data_raw/OS-Inventory-list-20260202.xlsx
+++ b/data_raw/OS-Inventory-list-20260202.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiuqili-local/Documents/GitHub/UCSB-Library-OSSSI/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiuqili-local/Documents/GitHub/UCSB-Library-OSSSI/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD8C5E-B27B-1A42-8CC2-9EEF518090AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DD706F-B2C0-D444-91FB-B4DAAD92DB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="680" windowWidth="30240" windowHeight="18880" xr2:uid="{1509BDA8-4FD2-7641-BB7D-D0BB426F409D}"/>
+    <workbookView xWindow="6740" yWindow="1020" windowWidth="30240" windowHeight="18880" xr2:uid="{1509BDA8-4FD2-7641-BB7D-D0BB426F409D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>Department &amp; Program Orientation</t>
   </si>
   <si>
-    <t>T&amp;L SRC</t>
-  </si>
-  <si>
     <t>Open science &amp; data management planning</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Open Source Program</t>
+  </si>
+  <si>
+    <t>R&amp;E SRC</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BAB806-8A7F-5D43-B5BC-96EB20C6A4E4}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -985,7 +985,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1027,14 +1027,14 @@
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1074,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>52</v>
@@ -1137,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>8</v>
@@ -1158,7 +1158,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>8</v>
@@ -1179,7 +1179,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>8</v>
@@ -1200,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>32</v>
@@ -1221,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>8</v>
@@ -1233,7 +1233,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="8">
         <v>24</v>
@@ -1242,10 +1242,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1284,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>7</v>
@@ -1296,7 +1296,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="8">
         <v>27</v>
@@ -1326,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>8</v>
@@ -1422,7 +1422,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="6">
         <v>33</v>
@@ -1437,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1445,7 +1445,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="6">
         <v>34</v>
@@ -1468,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="6">
         <v>35</v>
@@ -1480,10 +1480,10 @@
         <v>49</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="6">
         <v>36</v>
@@ -1514,7 +1514,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="6">
         <v>37</v>
@@ -1537,7 +1537,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="6">
         <v>38</v>
@@ -1560,7 +1560,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="6">
         <v>39</v>
@@ -1583,7 +1583,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="6">
         <v>40</v>
@@ -1606,7 +1606,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="6">
         <v>41</v>
@@ -1621,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="6">
         <v>42</v>
@@ -1638,13 +1638,13 @@
         <v>20</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="6">
         <v>43</v>
@@ -1667,7 +1667,7 @@
         <v>32</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1675,7 +1675,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="6">
         <v>44</v>
@@ -1687,10 +1687,10 @@
         <v>22</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>8</v>
@@ -1751,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>7</v>
@@ -1775,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G49" s="9"/>
     </row>
@@ -1784,7 +1784,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="10">
         <v>49</v>
@@ -1816,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>8</v>
@@ -1849,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="10">
         <v>52</v>
@@ -1858,10 +1858,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" s="9"/>
     </row>
